--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 2.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2211,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2933,12 +2933,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3199,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3237,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4839,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5219,12 +5219,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
